--- a/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,33; 73,57</t>
+          <t>32,03; 73,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,35; 76,43</t>
+          <t>37,93; 75,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,0; 70,33</t>
+          <t>40,9; 68,97</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,75; 87,69</t>
+          <t>58,65; 88,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 59,19</t>
+          <t>19,95; 58,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,1; 68,58</t>
+          <t>44,1; 67,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,16; 100,0</t>
+          <t>51,94; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 35,22</t>
+          <t>1,89; 36,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,63; 76,0</t>
+          <t>34,98; 77,71</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,92; 81,45</t>
+          <t>59,78; 82,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,39; 54,5</t>
+          <t>28,31; 54,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,78; 64,2</t>
+          <t>47,75; 64,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>55,14%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,03; 73,97</t>
+          <t>31,11; 73,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,93; 75,54</t>
+          <t>37,62; 75,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,9; 68,97</t>
+          <t>40,17; 68,44</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>74,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>56,25%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,65; 88,97</t>
+          <t>56,95; 88,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,95; 58,93</t>
+          <t>19,93; 58,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,1; 67,64</t>
+          <t>43,64; 67,32</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,12%</t>
+          <t>57,95%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,94; 100,0</t>
+          <t>51,51; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 36,89</t>
+          <t>2,03; 36,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,98; 77,71</t>
+          <t>35,55; 77,95</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>38,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>56,21%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,78; 82,55</t>
+          <t>59,12; 82,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 54,23</t>
+          <t>28,19; 52,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,75; 64,19</t>
+          <t>47,21; 64,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P20D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,11; 73,54</t>
+          <t>33,24; 73,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,62; 75,49</t>
+          <t>39,17; 77,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40,17; 68,44</t>
+          <t>40,98; 70,29</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>56,95; 88,68</t>
+          <t>56,15; 87,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,93; 58,1</t>
+          <t>19,64; 57,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,64; 67,32</t>
+          <t>44,53; 68,92</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,51; 100,0</t>
+          <t>58,93; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 36,65</t>
+          <t>1,97; 37,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,55; 77,95</t>
+          <t>37,15; 78,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,12; 82,22</t>
+          <t>58,54; 80,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,19; 52,95</t>
+          <t>27,7; 52,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,21; 64,04</t>
+          <t>47,5; 64,93</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17779</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6230; 13861</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5287; 10451</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13213; 22662</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24371</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10114</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34486</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18429; 28589</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5597; 16448</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27305; 42255</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9678</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10663</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6312; 10712</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>152; 2867</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6836; 14485</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>43963</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18966</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>62928</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36456; 50242</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13760; 26012</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53182; 72689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>